--- a/GA/src/parameters/result.xlsx
+++ b/GA/src/parameters/result.xlsx
@@ -14,7 +14,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="39">
+  <si>
+    <t>Optimization</t>
+  </si>
+  <si>
+    <t>Min.</t>
+  </si>
+  <si>
+    <t>w(a,v,t) The number of trip of vehicle v from supplier a to factory on day t</t>
+  </si>
   <si>
     <t>supplier 1</t>
   </si>
@@ -32,6 +41,96 @@
   </si>
   <si>
     <t>supplier 2</t>
+  </si>
+  <si>
+    <t>w1(b,f,t) The number of trip of vehicle f from factory to wolesaler b on day t</t>
+  </si>
+  <si>
+    <t>wholesaler 1</t>
+  </si>
+  <si>
+    <t>wholesaler 2</t>
+  </si>
+  <si>
+    <t>w11(b,e,g,t) The number of trip of vehicle g from wholesaler b to retailer e on day t</t>
+  </si>
+  <si>
+    <t>retailer 1</t>
+  </si>
+  <si>
+    <t>retailer 2</t>
+  </si>
+  <si>
+    <t>y111(b,e,g,p,t) THe number of product p transported by vehicle g from wholesaler b to retailer e on day t</t>
+  </si>
+  <si>
+    <t>product 1</t>
+  </si>
+  <si>
+    <t>product 2</t>
+  </si>
+  <si>
+    <t>bo(e,p,t) The amount of postponed orders of retailer from product p on day t</t>
+  </si>
+  <si>
+    <t>u1(m,t) Storage inventory (weight) of wooden raw material m in the factory on day t</t>
+  </si>
+  <si>
+    <t>material 1</t>
+  </si>
+  <si>
+    <t>material 2</t>
+  </si>
+  <si>
+    <t>u_pt(p,t) Storage inventory (weight) of product p in the factory on day t</t>
+  </si>
+  <si>
+    <t>u11(b,p,t) Storage inventory of wholesaler b from product p on day t</t>
+  </si>
+  <si>
+    <t>u111(e,p,t) Storage inventory of customer e from product p on day t</t>
+  </si>
+  <si>
+    <t>wb(e,i,j,t) The number of trip of vehicle I from retailer e to collection center j on day t</t>
+  </si>
+  <si>
+    <t>collection-center 1</t>
+  </si>
+  <si>
+    <t>collection-center 2</t>
+  </si>
+  <si>
+    <t>wb1(ix,j,t) The number of vehicle ix from collection center j to the factory on day t</t>
+  </si>
+  <si>
+    <t>x(a,v,t) Binary veariable representing the departure or no-departure of vehicle v form supplier a to the factory on day t</t>
+  </si>
+  <si>
+    <t>x1(b,f,t) Binary variable representing the departure or non-departure of vehicle f from factory to wholesaler b on day t</t>
+  </si>
+  <si>
+    <t>x11(b,e,g,t) Binary variable representing the departure or non-departure of vehicle g from wholesaler b  to retailer e on day t</t>
+  </si>
+  <si>
+    <t>yb(e,i,j,p,t) The amount of product p sent from retailer e to collection center j to the factory by vehicle Ixx on day t</t>
+  </si>
+  <si>
+    <t>yb1(ix,j,m,t) The amount of material m sent from collection center j to the factory by vehicle Ixx on day t</t>
+  </si>
+  <si>
+    <t>y(a,v,m,t) The amount of wooden raw material m sent by vehicle v from supplier a to the factory on day t</t>
+  </si>
+  <si>
+    <t>y1(p,t) The number of manufactured products p by the factory on day t</t>
+  </si>
+  <si>
+    <t>y11(b,g,p,t) The number of products p sent by vehicle g from the factory to wholesaler b on day t</t>
+  </si>
+  <si>
+    <t>xb(e,i,j,t) Binary variable representing the departure or non-departure of vehicle I from retailer e to collection center j on day t</t>
+  </si>
+  <si>
+    <t>xb1(ix,j,t) Binary variable representing the departure or non-departure of vehicle ix from collection center j to the factory on day t</t>
   </si>
 </sst>
 </file>
@@ -363,7 +462,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:F304"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -373,58 +472,29 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2">
+        <v>266107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
         <v>2</v>
-      </c>
-      <c r="D1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -432,35 +502,3194 @@
     </row>
     <row r="6" spans="1:4">
       <c r="B6" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="B7" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="B8" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19">
         <v>3</v>
       </c>
-      <c r="D8">
+    </row>
+    <row r="20" spans="1:5">
+      <c r="B20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20">
         <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="C27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="C28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="B29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="C30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="C31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" t="s">
+        <v>5</v>
+      </c>
+      <c r="E31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="C32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="C34" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="C35" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="C36" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" t="s">
+        <v>6</v>
+      </c>
+      <c r="E36">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="B37" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" t="s">
+        <v>5</v>
+      </c>
+      <c r="E37">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="C38" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="C39" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" t="s">
+        <v>5</v>
+      </c>
+      <c r="E39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="C40" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" t="s">
+        <v>6</v>
+      </c>
+      <c r="E40">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43" t="s">
+        <v>16</v>
+      </c>
+      <c r="E43" t="s">
+        <v>5</v>
+      </c>
+      <c r="F43">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="D44" t="s">
+        <v>16</v>
+      </c>
+      <c r="E44" t="s">
+        <v>6</v>
+      </c>
+      <c r="F44">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="D45" t="s">
+        <v>17</v>
+      </c>
+      <c r="E45" t="s">
+        <v>5</v>
+      </c>
+      <c r="F45">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="D46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E46" t="s">
+        <v>6</v>
+      </c>
+      <c r="F46">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="C47" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" t="s">
+        <v>16</v>
+      </c>
+      <c r="E47" t="s">
+        <v>5</v>
+      </c>
+      <c r="F47">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="D48" t="s">
+        <v>16</v>
+      </c>
+      <c r="E48" t="s">
+        <v>6</v>
+      </c>
+      <c r="F48">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="D49" t="s">
+        <v>17</v>
+      </c>
+      <c r="E49" t="s">
+        <v>5</v>
+      </c>
+      <c r="F49">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="D50" t="s">
+        <v>17</v>
+      </c>
+      <c r="E50" t="s">
+        <v>6</v>
+      </c>
+      <c r="F50">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="B51" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51" t="s">
+        <v>4</v>
+      </c>
+      <c r="D51" t="s">
+        <v>16</v>
+      </c>
+      <c r="E51" t="s">
+        <v>5</v>
+      </c>
+      <c r="F51">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="D52" t="s">
+        <v>16</v>
+      </c>
+      <c r="E52" t="s">
+        <v>6</v>
+      </c>
+      <c r="F52">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="D53" t="s">
+        <v>17</v>
+      </c>
+      <c r="E53" t="s">
+        <v>5</v>
+      </c>
+      <c r="F53">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="D54" t="s">
+        <v>17</v>
+      </c>
+      <c r="E54" t="s">
+        <v>6</v>
+      </c>
+      <c r="F54">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="C55" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55" t="s">
+        <v>16</v>
+      </c>
+      <c r="E55" t="s">
+        <v>5</v>
+      </c>
+      <c r="F55">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="D56" t="s">
+        <v>16</v>
+      </c>
+      <c r="E56" t="s">
+        <v>6</v>
+      </c>
+      <c r="F56">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="D57" t="s">
+        <v>17</v>
+      </c>
+      <c r="E57" t="s">
+        <v>5</v>
+      </c>
+      <c r="F57">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="D58" t="s">
+        <v>17</v>
+      </c>
+      <c r="E58" t="s">
+        <v>6</v>
+      </c>
+      <c r="F58">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" t="s">
+        <v>11</v>
+      </c>
+      <c r="B59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C59" t="s">
+        <v>4</v>
+      </c>
+      <c r="D59" t="s">
+        <v>16</v>
+      </c>
+      <c r="E59" t="s">
+        <v>5</v>
+      </c>
+      <c r="F59">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="D60" t="s">
+        <v>16</v>
+      </c>
+      <c r="E60" t="s">
+        <v>6</v>
+      </c>
+      <c r="F60">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="D61" t="s">
+        <v>17</v>
+      </c>
+      <c r="E61" t="s">
+        <v>5</v>
+      </c>
+      <c r="F61">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="D62" t="s">
+        <v>17</v>
+      </c>
+      <c r="E62" t="s">
+        <v>6</v>
+      </c>
+      <c r="F62">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="C63" t="s">
+        <v>7</v>
+      </c>
+      <c r="D63" t="s">
+        <v>16</v>
+      </c>
+      <c r="E63" t="s">
+        <v>5</v>
+      </c>
+      <c r="F63">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="D64" t="s">
+        <v>16</v>
+      </c>
+      <c r="E64" t="s">
+        <v>6</v>
+      </c>
+      <c r="F64">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="D65" t="s">
+        <v>17</v>
+      </c>
+      <c r="E65" t="s">
+        <v>5</v>
+      </c>
+      <c r="F65">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="D66" t="s">
+        <v>17</v>
+      </c>
+      <c r="E66" t="s">
+        <v>6</v>
+      </c>
+      <c r="F66">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="B67" t="s">
+        <v>14</v>
+      </c>
+      <c r="C67" t="s">
+        <v>4</v>
+      </c>
+      <c r="D67" t="s">
+        <v>16</v>
+      </c>
+      <c r="E67" t="s">
+        <v>5</v>
+      </c>
+      <c r="F67">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="D68" t="s">
+        <v>16</v>
+      </c>
+      <c r="E68" t="s">
+        <v>6</v>
+      </c>
+      <c r="F68">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="D69" t="s">
+        <v>17</v>
+      </c>
+      <c r="E69" t="s">
+        <v>5</v>
+      </c>
+      <c r="F69">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="D70" t="s">
+        <v>17</v>
+      </c>
+      <c r="E70" t="s">
+        <v>6</v>
+      </c>
+      <c r="F70">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="C71" t="s">
+        <v>7</v>
+      </c>
+      <c r="D71" t="s">
+        <v>16</v>
+      </c>
+      <c r="E71" t="s">
+        <v>5</v>
+      </c>
+      <c r="F71">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="D72" t="s">
+        <v>16</v>
+      </c>
+      <c r="E72" t="s">
+        <v>6</v>
+      </c>
+      <c r="F72">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="D73" t="s">
+        <v>17</v>
+      </c>
+      <c r="E73" t="s">
+        <v>5</v>
+      </c>
+      <c r="F73">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="D74" t="s">
+        <v>17</v>
+      </c>
+      <c r="E74" t="s">
+        <v>6</v>
+      </c>
+      <c r="F74">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" t="s">
+        <v>13</v>
+      </c>
+      <c r="B77" t="s">
+        <v>16</v>
+      </c>
+      <c r="C77" t="s">
+        <v>5</v>
+      </c>
+      <c r="D77">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="B78" t="s">
+        <v>16</v>
+      </c>
+      <c r="C78" t="s">
+        <v>6</v>
+      </c>
+      <c r="D78">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="B79" t="s">
+        <v>17</v>
+      </c>
+      <c r="C79" t="s">
+        <v>5</v>
+      </c>
+      <c r="D79">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="B80" t="s">
+        <v>17</v>
+      </c>
+      <c r="C80" t="s">
+        <v>6</v>
+      </c>
+      <c r="D80">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" t="s">
+        <v>14</v>
+      </c>
+      <c r="B81" t="s">
+        <v>16</v>
+      </c>
+      <c r="C81" t="s">
+        <v>5</v>
+      </c>
+      <c r="D81">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="B82" t="s">
+        <v>16</v>
+      </c>
+      <c r="C82" t="s">
+        <v>6</v>
+      </c>
+      <c r="D82">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="B83" t="s">
+        <v>17</v>
+      </c>
+      <c r="C83" t="s">
+        <v>5</v>
+      </c>
+      <c r="D83">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="B84" t="s">
+        <v>17</v>
+      </c>
+      <c r="C84" t="s">
+        <v>6</v>
+      </c>
+      <c r="D84">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" t="s">
+        <v>20</v>
+      </c>
+      <c r="B87" t="s">
+        <v>5</v>
+      </c>
+      <c r="C87">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="B88" t="s">
+        <v>6</v>
+      </c>
+      <c r="C88">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" t="s">
+        <v>21</v>
+      </c>
+      <c r="B89" t="s">
+        <v>5</v>
+      </c>
+      <c r="C89">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="B90" t="s">
+        <v>6</v>
+      </c>
+      <c r="C90">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" t="s">
+        <v>16</v>
+      </c>
+      <c r="B93" t="s">
+        <v>5</v>
+      </c>
+      <c r="C93">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="B94" t="s">
+        <v>6</v>
+      </c>
+      <c r="C94">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" t="s">
+        <v>17</v>
+      </c>
+      <c r="B95" t="s">
+        <v>5</v>
+      </c>
+      <c r="C95">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="B96" t="s">
+        <v>6</v>
+      </c>
+      <c r="C96">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" t="s">
+        <v>10</v>
+      </c>
+      <c r="B99" t="s">
+        <v>16</v>
+      </c>
+      <c r="C99" t="s">
+        <v>5</v>
+      </c>
+      <c r="D99">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="B100" t="s">
+        <v>16</v>
+      </c>
+      <c r="C100" t="s">
+        <v>6</v>
+      </c>
+      <c r="D100">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="B101" t="s">
+        <v>17</v>
+      </c>
+      <c r="C101" t="s">
+        <v>5</v>
+      </c>
+      <c r="D101">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="B102" t="s">
+        <v>17</v>
+      </c>
+      <c r="C102" t="s">
+        <v>6</v>
+      </c>
+      <c r="D102">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" t="s">
+        <v>11</v>
+      </c>
+      <c r="B103" t="s">
+        <v>16</v>
+      </c>
+      <c r="C103" t="s">
+        <v>5</v>
+      </c>
+      <c r="D103">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="B104" t="s">
+        <v>16</v>
+      </c>
+      <c r="C104" t="s">
+        <v>6</v>
+      </c>
+      <c r="D104">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="B105" t="s">
+        <v>17</v>
+      </c>
+      <c r="C105" t="s">
+        <v>5</v>
+      </c>
+      <c r="D105">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="B106" t="s">
+        <v>17</v>
+      </c>
+      <c r="C106" t="s">
+        <v>6</v>
+      </c>
+      <c r="D106">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" t="s">
+        <v>13</v>
+      </c>
+      <c r="B109" t="s">
+        <v>16</v>
+      </c>
+      <c r="C109" t="s">
+        <v>5</v>
+      </c>
+      <c r="D109">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="B110" t="s">
+        <v>16</v>
+      </c>
+      <c r="C110" t="s">
+        <v>6</v>
+      </c>
+      <c r="D110">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="B111" t="s">
+        <v>17</v>
+      </c>
+      <c r="C111" t="s">
+        <v>5</v>
+      </c>
+      <c r="D111">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="B112" t="s">
+        <v>17</v>
+      </c>
+      <c r="C112" t="s">
+        <v>6</v>
+      </c>
+      <c r="D112">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" t="s">
+        <v>14</v>
+      </c>
+      <c r="B113" t="s">
+        <v>16</v>
+      </c>
+      <c r="C113" t="s">
+        <v>5</v>
+      </c>
+      <c r="D113">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="B114" t="s">
+        <v>16</v>
+      </c>
+      <c r="C114" t="s">
+        <v>6</v>
+      </c>
+      <c r="D114">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="B115" t="s">
+        <v>17</v>
+      </c>
+      <c r="C115" t="s">
+        <v>5</v>
+      </c>
+      <c r="D115">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="B116" t="s">
+        <v>17</v>
+      </c>
+      <c r="C116" t="s">
+        <v>6</v>
+      </c>
+      <c r="D116">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" t="s">
+        <v>13</v>
+      </c>
+      <c r="B119" t="s">
+        <v>4</v>
+      </c>
+      <c r="C119" t="s">
+        <v>26</v>
+      </c>
+      <c r="D119" t="s">
+        <v>5</v>
+      </c>
+      <c r="E119">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="C120" t="s">
+        <v>26</v>
+      </c>
+      <c r="D120" t="s">
+        <v>6</v>
+      </c>
+      <c r="E120">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="C121" t="s">
+        <v>27</v>
+      </c>
+      <c r="D121" t="s">
+        <v>5</v>
+      </c>
+      <c r="E121">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="C122" t="s">
+        <v>27</v>
+      </c>
+      <c r="D122" t="s">
+        <v>6</v>
+      </c>
+      <c r="E122">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="B123" t="s">
+        <v>7</v>
+      </c>
+      <c r="C123" t="s">
+        <v>26</v>
+      </c>
+      <c r="D123" t="s">
+        <v>5</v>
+      </c>
+      <c r="E123">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="C124" t="s">
+        <v>26</v>
+      </c>
+      <c r="D124" t="s">
+        <v>6</v>
+      </c>
+      <c r="E124">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="C125" t="s">
+        <v>27</v>
+      </c>
+      <c r="D125" t="s">
+        <v>5</v>
+      </c>
+      <c r="E125">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="C126" t="s">
+        <v>27</v>
+      </c>
+      <c r="D126" t="s">
+        <v>6</v>
+      </c>
+      <c r="E126">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" t="s">
+        <v>14</v>
+      </c>
+      <c r="B127" t="s">
+        <v>4</v>
+      </c>
+      <c r="C127" t="s">
+        <v>26</v>
+      </c>
+      <c r="D127" t="s">
+        <v>5</v>
+      </c>
+      <c r="E127">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="C128" t="s">
+        <v>26</v>
+      </c>
+      <c r="D128" t="s">
+        <v>6</v>
+      </c>
+      <c r="E128">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="C129" t="s">
+        <v>27</v>
+      </c>
+      <c r="D129" t="s">
+        <v>5</v>
+      </c>
+      <c r="E129">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="C130" t="s">
+        <v>27</v>
+      </c>
+      <c r="D130" t="s">
+        <v>6</v>
+      </c>
+      <c r="E130">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="B131" t="s">
+        <v>7</v>
+      </c>
+      <c r="C131" t="s">
+        <v>26</v>
+      </c>
+      <c r="D131" t="s">
+        <v>5</v>
+      </c>
+      <c r="E131">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="C132" t="s">
+        <v>26</v>
+      </c>
+      <c r="D132" t="s">
+        <v>6</v>
+      </c>
+      <c r="E132">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="C133" t="s">
+        <v>27</v>
+      </c>
+      <c r="D133" t="s">
+        <v>5</v>
+      </c>
+      <c r="E133">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="C134" t="s">
+        <v>27</v>
+      </c>
+      <c r="D134" t="s">
+        <v>6</v>
+      </c>
+      <c r="E134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" t="s">
+        <v>4</v>
+      </c>
+      <c r="B137" t="s">
+        <v>26</v>
+      </c>
+      <c r="C137" t="s">
+        <v>5</v>
+      </c>
+      <c r="D137">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="B138" t="s">
+        <v>26</v>
+      </c>
+      <c r="C138" t="s">
+        <v>6</v>
+      </c>
+      <c r="D138">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="B139" t="s">
+        <v>27</v>
+      </c>
+      <c r="C139" t="s">
+        <v>5</v>
+      </c>
+      <c r="D139">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="B140" t="s">
+        <v>27</v>
+      </c>
+      <c r="C140" t="s">
+        <v>6</v>
+      </c>
+      <c r="D140">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" t="s">
+        <v>7</v>
+      </c>
+      <c r="B141" t="s">
+        <v>26</v>
+      </c>
+      <c r="C141" t="s">
+        <v>5</v>
+      </c>
+      <c r="D141">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="B142" t="s">
+        <v>26</v>
+      </c>
+      <c r="C142" t="s">
+        <v>6</v>
+      </c>
+      <c r="D142">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="B143" t="s">
+        <v>27</v>
+      </c>
+      <c r="C143" t="s">
+        <v>5</v>
+      </c>
+      <c r="D143">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="B144" t="s">
+        <v>27</v>
+      </c>
+      <c r="C144" t="s">
+        <v>6</v>
+      </c>
+      <c r="D144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" t="s">
+        <v>3</v>
+      </c>
+      <c r="B147" t="s">
+        <v>4</v>
+      </c>
+      <c r="C147" t="s">
+        <v>5</v>
+      </c>
+      <c r="D147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="B148" t="s">
+        <v>4</v>
+      </c>
+      <c r="C148" t="s">
+        <v>6</v>
+      </c>
+      <c r="D148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="B149" t="s">
+        <v>7</v>
+      </c>
+      <c r="C149" t="s">
+        <v>5</v>
+      </c>
+      <c r="D149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="B150" t="s">
+        <v>7</v>
+      </c>
+      <c r="C150" t="s">
+        <v>6</v>
+      </c>
+      <c r="D150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" t="s">
+        <v>8</v>
+      </c>
+      <c r="B151" t="s">
+        <v>4</v>
+      </c>
+      <c r="C151" t="s">
+        <v>5</v>
+      </c>
+      <c r="D151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="B152" t="s">
+        <v>4</v>
+      </c>
+      <c r="C152" t="s">
+        <v>6</v>
+      </c>
+      <c r="D152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="B153" t="s">
+        <v>7</v>
+      </c>
+      <c r="C153" t="s">
+        <v>5</v>
+      </c>
+      <c r="D153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="B154" t="s">
+        <v>7</v>
+      </c>
+      <c r="C154" t="s">
+        <v>6</v>
+      </c>
+      <c r="D154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" t="s">
+        <v>10</v>
+      </c>
+      <c r="B157" t="s">
+        <v>4</v>
+      </c>
+      <c r="C157" t="s">
+        <v>5</v>
+      </c>
+      <c r="D157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="B158" t="s">
+        <v>4</v>
+      </c>
+      <c r="C158" t="s">
+        <v>6</v>
+      </c>
+      <c r="D158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="B159" t="s">
+        <v>7</v>
+      </c>
+      <c r="C159" t="s">
+        <v>5</v>
+      </c>
+      <c r="D159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="B160" t="s">
+        <v>7</v>
+      </c>
+      <c r="C160" t="s">
+        <v>6</v>
+      </c>
+      <c r="D160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" t="s">
+        <v>11</v>
+      </c>
+      <c r="B161" t="s">
+        <v>4</v>
+      </c>
+      <c r="C161" t="s">
+        <v>5</v>
+      </c>
+      <c r="D161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="B162" t="s">
+        <v>4</v>
+      </c>
+      <c r="C162" t="s">
+        <v>6</v>
+      </c>
+      <c r="D162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="B163" t="s">
+        <v>7</v>
+      </c>
+      <c r="C163" t="s">
+        <v>5</v>
+      </c>
+      <c r="D163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="B164" t="s">
+        <v>7</v>
+      </c>
+      <c r="C164" t="s">
+        <v>6</v>
+      </c>
+      <c r="D164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" t="s">
+        <v>10</v>
+      </c>
+      <c r="B167" t="s">
+        <v>13</v>
+      </c>
+      <c r="C167" t="s">
+        <v>4</v>
+      </c>
+      <c r="D167" t="s">
+        <v>5</v>
+      </c>
+      <c r="E167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="C168" t="s">
+        <v>4</v>
+      </c>
+      <c r="D168" t="s">
+        <v>6</v>
+      </c>
+      <c r="E168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="C169" t="s">
+        <v>7</v>
+      </c>
+      <c r="D169" t="s">
+        <v>5</v>
+      </c>
+      <c r="E169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="C170" t="s">
+        <v>7</v>
+      </c>
+      <c r="D170" t="s">
+        <v>6</v>
+      </c>
+      <c r="E170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="B171" t="s">
+        <v>14</v>
+      </c>
+      <c r="C171" t="s">
+        <v>4</v>
+      </c>
+      <c r="D171" t="s">
+        <v>5</v>
+      </c>
+      <c r="E171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="C172" t="s">
+        <v>4</v>
+      </c>
+      <c r="D172" t="s">
+        <v>6</v>
+      </c>
+      <c r="E172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="C173" t="s">
+        <v>7</v>
+      </c>
+      <c r="D173" t="s">
+        <v>5</v>
+      </c>
+      <c r="E173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="C174" t="s">
+        <v>7</v>
+      </c>
+      <c r="D174" t="s">
+        <v>6</v>
+      </c>
+      <c r="E174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175" t="s">
+        <v>11</v>
+      </c>
+      <c r="B175" t="s">
+        <v>13</v>
+      </c>
+      <c r="C175" t="s">
+        <v>4</v>
+      </c>
+      <c r="D175" t="s">
+        <v>5</v>
+      </c>
+      <c r="E175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="C176" t="s">
+        <v>4</v>
+      </c>
+      <c r="D176" t="s">
+        <v>6</v>
+      </c>
+      <c r="E176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
+      <c r="C177" t="s">
+        <v>7</v>
+      </c>
+      <c r="D177" t="s">
+        <v>5</v>
+      </c>
+      <c r="E177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
+      <c r="C178" t="s">
+        <v>7</v>
+      </c>
+      <c r="D178" t="s">
+        <v>6</v>
+      </c>
+      <c r="E178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
+      <c r="B179" t="s">
+        <v>14</v>
+      </c>
+      <c r="C179" t="s">
+        <v>4</v>
+      </c>
+      <c r="D179" t="s">
+        <v>5</v>
+      </c>
+      <c r="E179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
+      <c r="C180" t="s">
+        <v>4</v>
+      </c>
+      <c r="D180" t="s">
+        <v>6</v>
+      </c>
+      <c r="E180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6">
+      <c r="C181" t="s">
+        <v>7</v>
+      </c>
+      <c r="D181" t="s">
+        <v>5</v>
+      </c>
+      <c r="E181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
+      <c r="C182" t="s">
+        <v>7</v>
+      </c>
+      <c r="D182" t="s">
+        <v>6</v>
+      </c>
+      <c r="E182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6">
+      <c r="A184" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6">
+      <c r="A185" t="s">
+        <v>10</v>
+      </c>
+      <c r="B185" t="s">
+        <v>4</v>
+      </c>
+      <c r="C185" t="s">
+        <v>26</v>
+      </c>
+      <c r="D185" t="s">
+        <v>16</v>
+      </c>
+      <c r="E185" t="s">
+        <v>5</v>
+      </c>
+      <c r="F185">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6">
+      <c r="D186" t="s">
+        <v>16</v>
+      </c>
+      <c r="E186" t="s">
+        <v>6</v>
+      </c>
+      <c r="F186">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6">
+      <c r="D187" t="s">
+        <v>17</v>
+      </c>
+      <c r="E187" t="s">
+        <v>5</v>
+      </c>
+      <c r="F187">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6">
+      <c r="D188" t="s">
+        <v>17</v>
+      </c>
+      <c r="E188" t="s">
+        <v>6</v>
+      </c>
+      <c r="F188">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6">
+      <c r="C189" t="s">
+        <v>27</v>
+      </c>
+      <c r="D189" t="s">
+        <v>16</v>
+      </c>
+      <c r="E189" t="s">
+        <v>5</v>
+      </c>
+      <c r="F189">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6">
+      <c r="D190" t="s">
+        <v>16</v>
+      </c>
+      <c r="E190" t="s">
+        <v>6</v>
+      </c>
+      <c r="F190">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6">
+      <c r="D191" t="s">
+        <v>17</v>
+      </c>
+      <c r="E191" t="s">
+        <v>5</v>
+      </c>
+      <c r="F191">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
+      <c r="D192" t="s">
+        <v>17</v>
+      </c>
+      <c r="E192" t="s">
+        <v>6</v>
+      </c>
+      <c r="F192">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6">
+      <c r="B193" t="s">
+        <v>7</v>
+      </c>
+      <c r="C193" t="s">
+        <v>26</v>
+      </c>
+      <c r="D193" t="s">
+        <v>16</v>
+      </c>
+      <c r="E193" t="s">
+        <v>5</v>
+      </c>
+      <c r="F193">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6">
+      <c r="D194" t="s">
+        <v>16</v>
+      </c>
+      <c r="E194" t="s">
+        <v>6</v>
+      </c>
+      <c r="F194">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6">
+      <c r="D195" t="s">
+        <v>17</v>
+      </c>
+      <c r="E195" t="s">
+        <v>5</v>
+      </c>
+      <c r="F195">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6">
+      <c r="D196" t="s">
+        <v>17</v>
+      </c>
+      <c r="E196" t="s">
+        <v>6</v>
+      </c>
+      <c r="F196">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6">
+      <c r="C197" t="s">
+        <v>27</v>
+      </c>
+      <c r="D197" t="s">
+        <v>16</v>
+      </c>
+      <c r="E197" t="s">
+        <v>5</v>
+      </c>
+      <c r="F197">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6">
+      <c r="D198" t="s">
+        <v>16</v>
+      </c>
+      <c r="E198" t="s">
+        <v>6</v>
+      </c>
+      <c r="F198">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6">
+      <c r="D199" t="s">
+        <v>17</v>
+      </c>
+      <c r="E199" t="s">
+        <v>5</v>
+      </c>
+      <c r="F199">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6">
+      <c r="D200" t="s">
+        <v>17</v>
+      </c>
+      <c r="E200" t="s">
+        <v>6</v>
+      </c>
+      <c r="F200">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6">
+      <c r="A201" t="s">
+        <v>11</v>
+      </c>
+      <c r="B201" t="s">
+        <v>4</v>
+      </c>
+      <c r="C201" t="s">
+        <v>26</v>
+      </c>
+      <c r="D201" t="s">
+        <v>16</v>
+      </c>
+      <c r="E201" t="s">
+        <v>5</v>
+      </c>
+      <c r="F201">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6">
+      <c r="D202" t="s">
+        <v>16</v>
+      </c>
+      <c r="E202" t="s">
+        <v>6</v>
+      </c>
+      <c r="F202">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6">
+      <c r="D203" t="s">
+        <v>17</v>
+      </c>
+      <c r="E203" t="s">
+        <v>5</v>
+      </c>
+      <c r="F203">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6">
+      <c r="D204" t="s">
+        <v>17</v>
+      </c>
+      <c r="E204" t="s">
+        <v>6</v>
+      </c>
+      <c r="F204">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6">
+      <c r="C205" t="s">
+        <v>27</v>
+      </c>
+      <c r="D205" t="s">
+        <v>16</v>
+      </c>
+      <c r="E205" t="s">
+        <v>5</v>
+      </c>
+      <c r="F205">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6">
+      <c r="D206" t="s">
+        <v>16</v>
+      </c>
+      <c r="E206" t="s">
+        <v>6</v>
+      </c>
+      <c r="F206">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6">
+      <c r="D207" t="s">
+        <v>17</v>
+      </c>
+      <c r="E207" t="s">
+        <v>5</v>
+      </c>
+      <c r="F207">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6">
+      <c r="D208" t="s">
+        <v>17</v>
+      </c>
+      <c r="E208" t="s">
+        <v>6</v>
+      </c>
+      <c r="F208">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6">
+      <c r="B209" t="s">
+        <v>7</v>
+      </c>
+      <c r="C209" t="s">
+        <v>26</v>
+      </c>
+      <c r="D209" t="s">
+        <v>16</v>
+      </c>
+      <c r="E209" t="s">
+        <v>5</v>
+      </c>
+      <c r="F209">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6">
+      <c r="D210" t="s">
+        <v>16</v>
+      </c>
+      <c r="E210" t="s">
+        <v>6</v>
+      </c>
+      <c r="F210">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6">
+      <c r="D211" t="s">
+        <v>17</v>
+      </c>
+      <c r="E211" t="s">
+        <v>5</v>
+      </c>
+      <c r="F211">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6">
+      <c r="D212" t="s">
+        <v>17</v>
+      </c>
+      <c r="E212" t="s">
+        <v>6</v>
+      </c>
+      <c r="F212">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6">
+      <c r="C213" t="s">
+        <v>27</v>
+      </c>
+      <c r="D213" t="s">
+        <v>16</v>
+      </c>
+      <c r="E213" t="s">
+        <v>5</v>
+      </c>
+      <c r="F213">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6">
+      <c r="D214" t="s">
+        <v>16</v>
+      </c>
+      <c r="E214" t="s">
+        <v>6</v>
+      </c>
+      <c r="F214">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6">
+      <c r="D215" t="s">
+        <v>17</v>
+      </c>
+      <c r="E215" t="s">
+        <v>5</v>
+      </c>
+      <c r="F215">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6">
+      <c r="D216" t="s">
+        <v>17</v>
+      </c>
+      <c r="E216" t="s">
+        <v>6</v>
+      </c>
+      <c r="F216">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6">
+      <c r="A218" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6">
+      <c r="A219" t="s">
+        <v>4</v>
+      </c>
+      <c r="B219" t="s">
+        <v>26</v>
+      </c>
+      <c r="C219" t="s">
+        <v>20</v>
+      </c>
+      <c r="D219" t="s">
+        <v>5</v>
+      </c>
+      <c r="E219">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6">
+      <c r="C220" t="s">
+        <v>20</v>
+      </c>
+      <c r="D220" t="s">
+        <v>6</v>
+      </c>
+      <c r="E220">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6">
+      <c r="C221" t="s">
+        <v>21</v>
+      </c>
+      <c r="D221" t="s">
+        <v>5</v>
+      </c>
+      <c r="E221">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6">
+      <c r="C222" t="s">
+        <v>21</v>
+      </c>
+      <c r="D222" t="s">
+        <v>6</v>
+      </c>
+      <c r="E222">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6">
+      <c r="B223" t="s">
+        <v>27</v>
+      </c>
+      <c r="C223" t="s">
+        <v>20</v>
+      </c>
+      <c r="D223" t="s">
+        <v>5</v>
+      </c>
+      <c r="E223">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6">
+      <c r="C224" t="s">
+        <v>20</v>
+      </c>
+      <c r="D224" t="s">
+        <v>6</v>
+      </c>
+      <c r="E224">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5">
+      <c r="C225" t="s">
+        <v>21</v>
+      </c>
+      <c r="D225" t="s">
+        <v>5</v>
+      </c>
+      <c r="E225">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5">
+      <c r="C226" t="s">
+        <v>21</v>
+      </c>
+      <c r="D226" t="s">
+        <v>6</v>
+      </c>
+      <c r="E226">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5">
+      <c r="A227" t="s">
+        <v>7</v>
+      </c>
+      <c r="B227" t="s">
+        <v>26</v>
+      </c>
+      <c r="C227" t="s">
+        <v>20</v>
+      </c>
+      <c r="D227" t="s">
+        <v>5</v>
+      </c>
+      <c r="E227">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5">
+      <c r="C228" t="s">
+        <v>20</v>
+      </c>
+      <c r="D228" t="s">
+        <v>6</v>
+      </c>
+      <c r="E228">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5">
+      <c r="C229" t="s">
+        <v>21</v>
+      </c>
+      <c r="D229" t="s">
+        <v>5</v>
+      </c>
+      <c r="E229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5">
+      <c r="C230" t="s">
+        <v>21</v>
+      </c>
+      <c r="D230" t="s">
+        <v>6</v>
+      </c>
+      <c r="E230">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5">
+      <c r="B231" t="s">
+        <v>27</v>
+      </c>
+      <c r="C231" t="s">
+        <v>20</v>
+      </c>
+      <c r="D231" t="s">
+        <v>5</v>
+      </c>
+      <c r="E231">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5">
+      <c r="C232" t="s">
+        <v>20</v>
+      </c>
+      <c r="D232" t="s">
+        <v>6</v>
+      </c>
+      <c r="E232">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5">
+      <c r="C233" t="s">
+        <v>21</v>
+      </c>
+      <c r="D233" t="s">
+        <v>5</v>
+      </c>
+      <c r="E233">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5">
+      <c r="C234" t="s">
+        <v>21</v>
+      </c>
+      <c r="D234" t="s">
+        <v>6</v>
+      </c>
+      <c r="E234">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5">
+      <c r="A236" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5">
+      <c r="A237" t="s">
+        <v>3</v>
+      </c>
+      <c r="B237" t="s">
+        <v>4</v>
+      </c>
+      <c r="C237" t="s">
+        <v>20</v>
+      </c>
+      <c r="D237" t="s">
+        <v>5</v>
+      </c>
+      <c r="E237">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5">
+      <c r="C238" t="s">
+        <v>20</v>
+      </c>
+      <c r="D238" t="s">
+        <v>6</v>
+      </c>
+      <c r="E238">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5">
+      <c r="C239" t="s">
+        <v>21</v>
+      </c>
+      <c r="D239" t="s">
+        <v>5</v>
+      </c>
+      <c r="E239">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5">
+      <c r="C240" t="s">
+        <v>21</v>
+      </c>
+      <c r="D240" t="s">
+        <v>6</v>
+      </c>
+      <c r="E240">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5">
+      <c r="B241" t="s">
+        <v>7</v>
+      </c>
+      <c r="C241" t="s">
+        <v>20</v>
+      </c>
+      <c r="D241" t="s">
+        <v>5</v>
+      </c>
+      <c r="E241">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5">
+      <c r="C242" t="s">
+        <v>20</v>
+      </c>
+      <c r="D242" t="s">
+        <v>6</v>
+      </c>
+      <c r="E242">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5">
+      <c r="C243" t="s">
+        <v>21</v>
+      </c>
+      <c r="D243" t="s">
+        <v>5</v>
+      </c>
+      <c r="E243">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5">
+      <c r="C244" t="s">
+        <v>21</v>
+      </c>
+      <c r="D244" t="s">
+        <v>6</v>
+      </c>
+      <c r="E244">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5">
+      <c r="A245" t="s">
+        <v>8</v>
+      </c>
+      <c r="B245" t="s">
+        <v>4</v>
+      </c>
+      <c r="C245" t="s">
+        <v>20</v>
+      </c>
+      <c r="D245" t="s">
+        <v>5</v>
+      </c>
+      <c r="E245">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5">
+      <c r="C246" t="s">
+        <v>20</v>
+      </c>
+      <c r="D246" t="s">
+        <v>6</v>
+      </c>
+      <c r="E246">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5">
+      <c r="C247" t="s">
+        <v>21</v>
+      </c>
+      <c r="D247" t="s">
+        <v>5</v>
+      </c>
+      <c r="E247">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5">
+      <c r="C248" t="s">
+        <v>21</v>
+      </c>
+      <c r="D248" t="s">
+        <v>6</v>
+      </c>
+      <c r="E248">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5">
+      <c r="B249" t="s">
+        <v>7</v>
+      </c>
+      <c r="C249" t="s">
+        <v>20</v>
+      </c>
+      <c r="D249" t="s">
+        <v>5</v>
+      </c>
+      <c r="E249">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5">
+      <c r="C250" t="s">
+        <v>20</v>
+      </c>
+      <c r="D250" t="s">
+        <v>6</v>
+      </c>
+      <c r="E250">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5">
+      <c r="C251" t="s">
+        <v>21</v>
+      </c>
+      <c r="D251" t="s">
+        <v>5</v>
+      </c>
+      <c r="E251">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5">
+      <c r="C252" t="s">
+        <v>21</v>
+      </c>
+      <c r="D252" t="s">
+        <v>6</v>
+      </c>
+      <c r="E252">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5">
+      <c r="A254" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5">
+      <c r="A255" t="s">
+        <v>16</v>
+      </c>
+      <c r="B255" t="s">
+        <v>5</v>
+      </c>
+      <c r="C255">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5">
+      <c r="B256" t="s">
+        <v>6</v>
+      </c>
+      <c r="C256">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5">
+      <c r="A257" t="s">
+        <v>17</v>
+      </c>
+      <c r="B257" t="s">
+        <v>5</v>
+      </c>
+      <c r="C257">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5">
+      <c r="B258" t="s">
+        <v>6</v>
+      </c>
+      <c r="C258">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5">
+      <c r="A260" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5">
+      <c r="A261" t="s">
+        <v>10</v>
+      </c>
+      <c r="B261" t="s">
+        <v>4</v>
+      </c>
+      <c r="C261" t="s">
+        <v>16</v>
+      </c>
+      <c r="D261" t="s">
+        <v>5</v>
+      </c>
+      <c r="E261">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5">
+      <c r="C262" t="s">
+        <v>16</v>
+      </c>
+      <c r="D262" t="s">
+        <v>6</v>
+      </c>
+      <c r="E262">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5">
+      <c r="C263" t="s">
+        <v>17</v>
+      </c>
+      <c r="D263" t="s">
+        <v>5</v>
+      </c>
+      <c r="E263">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5">
+      <c r="C264" t="s">
+        <v>17</v>
+      </c>
+      <c r="D264" t="s">
+        <v>6</v>
+      </c>
+      <c r="E264">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5">
+      <c r="B265" t="s">
+        <v>7</v>
+      </c>
+      <c r="C265" t="s">
+        <v>16</v>
+      </c>
+      <c r="D265" t="s">
+        <v>5</v>
+      </c>
+      <c r="E265">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5">
+      <c r="C266" t="s">
+        <v>16</v>
+      </c>
+      <c r="D266" t="s">
+        <v>6</v>
+      </c>
+      <c r="E266">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5">
+      <c r="C267" t="s">
+        <v>17</v>
+      </c>
+      <c r="D267" t="s">
+        <v>5</v>
+      </c>
+      <c r="E267">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5">
+      <c r="C268" t="s">
+        <v>17</v>
+      </c>
+      <c r="D268" t="s">
+        <v>6</v>
+      </c>
+      <c r="E268">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5">
+      <c r="A269" t="s">
+        <v>11</v>
+      </c>
+      <c r="B269" t="s">
+        <v>4</v>
+      </c>
+      <c r="C269" t="s">
+        <v>16</v>
+      </c>
+      <c r="D269" t="s">
+        <v>5</v>
+      </c>
+      <c r="E269">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5">
+      <c r="C270" t="s">
+        <v>16</v>
+      </c>
+      <c r="D270" t="s">
+        <v>6</v>
+      </c>
+      <c r="E270">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5">
+      <c r="C271" t="s">
+        <v>17</v>
+      </c>
+      <c r="D271" t="s">
+        <v>5</v>
+      </c>
+      <c r="E271">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5">
+      <c r="C272" t="s">
+        <v>17</v>
+      </c>
+      <c r="D272" t="s">
+        <v>6</v>
+      </c>
+      <c r="E272">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5">
+      <c r="B273" t="s">
+        <v>7</v>
+      </c>
+      <c r="C273" t="s">
+        <v>16</v>
+      </c>
+      <c r="D273" t="s">
+        <v>5</v>
+      </c>
+      <c r="E273">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5">
+      <c r="C274" t="s">
+        <v>16</v>
+      </c>
+      <c r="D274" t="s">
+        <v>6</v>
+      </c>
+      <c r="E274">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5">
+      <c r="C275" t="s">
+        <v>17</v>
+      </c>
+      <c r="D275" t="s">
+        <v>5</v>
+      </c>
+      <c r="E275">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5">
+      <c r="C276" t="s">
+        <v>17</v>
+      </c>
+      <c r="D276" t="s">
+        <v>6</v>
+      </c>
+      <c r="E276">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5">
+      <c r="A278" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5">
+      <c r="A279" t="s">
+        <v>13</v>
+      </c>
+      <c r="B279" t="s">
+        <v>4</v>
+      </c>
+      <c r="C279" t="s">
+        <v>26</v>
+      </c>
+      <c r="D279" t="s">
+        <v>5</v>
+      </c>
+      <c r="E279">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5">
+      <c r="C280" t="s">
+        <v>26</v>
+      </c>
+      <c r="D280" t="s">
+        <v>6</v>
+      </c>
+      <c r="E280">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5">
+      <c r="C281" t="s">
+        <v>27</v>
+      </c>
+      <c r="D281" t="s">
+        <v>5</v>
+      </c>
+      <c r="E281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5">
+      <c r="C282" t="s">
+        <v>27</v>
+      </c>
+      <c r="D282" t="s">
+        <v>6</v>
+      </c>
+      <c r="E282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5">
+      <c r="B283" t="s">
+        <v>7</v>
+      </c>
+      <c r="C283" t="s">
+        <v>26</v>
+      </c>
+      <c r="D283" t="s">
+        <v>5</v>
+      </c>
+      <c r="E283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5">
+      <c r="C284" t="s">
+        <v>26</v>
+      </c>
+      <c r="D284" t="s">
+        <v>6</v>
+      </c>
+      <c r="E284">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5">
+      <c r="C285" t="s">
+        <v>27</v>
+      </c>
+      <c r="D285" t="s">
+        <v>5</v>
+      </c>
+      <c r="E285">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5">
+      <c r="C286" t="s">
+        <v>27</v>
+      </c>
+      <c r="D286" t="s">
+        <v>6</v>
+      </c>
+      <c r="E286">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5">
+      <c r="A287" t="s">
+        <v>14</v>
+      </c>
+      <c r="B287" t="s">
+        <v>4</v>
+      </c>
+      <c r="C287" t="s">
+        <v>26</v>
+      </c>
+      <c r="D287" t="s">
+        <v>5</v>
+      </c>
+      <c r="E287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5">
+      <c r="C288" t="s">
+        <v>26</v>
+      </c>
+      <c r="D288" t="s">
+        <v>6</v>
+      </c>
+      <c r="E288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5">
+      <c r="C289" t="s">
+        <v>27</v>
+      </c>
+      <c r="D289" t="s">
+        <v>5</v>
+      </c>
+      <c r="E289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5">
+      <c r="C290" t="s">
+        <v>27</v>
+      </c>
+      <c r="D290" t="s">
+        <v>6</v>
+      </c>
+      <c r="E290">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5">
+      <c r="B291" t="s">
+        <v>7</v>
+      </c>
+      <c r="C291" t="s">
+        <v>26</v>
+      </c>
+      <c r="D291" t="s">
+        <v>5</v>
+      </c>
+      <c r="E291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5">
+      <c r="C292" t="s">
+        <v>26</v>
+      </c>
+      <c r="D292" t="s">
+        <v>6</v>
+      </c>
+      <c r="E292">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5">
+      <c r="C293" t="s">
+        <v>27</v>
+      </c>
+      <c r="D293" t="s">
+        <v>5</v>
+      </c>
+      <c r="E293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5">
+      <c r="C294" t="s">
+        <v>27</v>
+      </c>
+      <c r="D294" t="s">
+        <v>6</v>
+      </c>
+      <c r="E294">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5">
+      <c r="A296" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5">
+      <c r="A297" t="s">
+        <v>4</v>
+      </c>
+      <c r="B297" t="s">
+        <v>26</v>
+      </c>
+      <c r="C297" t="s">
+        <v>5</v>
+      </c>
+      <c r="D297">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5">
+      <c r="B298" t="s">
+        <v>26</v>
+      </c>
+      <c r="C298" t="s">
+        <v>6</v>
+      </c>
+      <c r="D298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5">
+      <c r="B299" t="s">
+        <v>27</v>
+      </c>
+      <c r="C299" t="s">
+        <v>5</v>
+      </c>
+      <c r="D299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5">
+      <c r="B300" t="s">
+        <v>27</v>
+      </c>
+      <c r="C300" t="s">
+        <v>6</v>
+      </c>
+      <c r="D300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5">
+      <c r="A301" t="s">
+        <v>7</v>
+      </c>
+      <c r="B301" t="s">
+        <v>26</v>
+      </c>
+      <c r="C301" t="s">
+        <v>5</v>
+      </c>
+      <c r="D301">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5">
+      <c r="B302" t="s">
+        <v>26</v>
+      </c>
+      <c r="C302" t="s">
+        <v>6</v>
+      </c>
+      <c r="D302">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5">
+      <c r="B303" t="s">
+        <v>27</v>
+      </c>
+      <c r="C303" t="s">
+        <v>5</v>
+      </c>
+      <c r="D303">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5">
+      <c r="B304" t="s">
+        <v>27</v>
+      </c>
+      <c r="C304" t="s">
+        <v>6</v>
+      </c>
+      <c r="D304">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/GA/src/parameters/result.xlsx
+++ b/GA/src/parameters/result.xlsx
@@ -478,7 +478,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>266107</v>
+        <v>195248</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -497,7 +497,7 @@
         <v>5</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -508,7 +508,7 @@
         <v>6</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -519,7 +519,7 @@
         <v>5</v>
       </c>
       <c r="D7">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -530,7 +530,7 @@
         <v>6</v>
       </c>
       <c r="D8">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -544,7 +544,7 @@
         <v>5</v>
       </c>
       <c r="D9">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -555,7 +555,7 @@
         <v>6</v>
       </c>
       <c r="D10">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -566,7 +566,7 @@
         <v>5</v>
       </c>
       <c r="D11">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -577,7 +577,7 @@
         <v>6</v>
       </c>
       <c r="D12">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -596,7 +596,7 @@
         <v>5</v>
       </c>
       <c r="D15">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -607,7 +607,7 @@
         <v>6</v>
       </c>
       <c r="D16">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -618,7 +618,7 @@
         <v>5</v>
       </c>
       <c r="D17">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -629,7 +629,7 @@
         <v>6</v>
       </c>
       <c r="D18">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -643,7 +643,7 @@
         <v>5</v>
       </c>
       <c r="D19">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -654,7 +654,7 @@
         <v>6</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -665,7 +665,7 @@
         <v>5</v>
       </c>
       <c r="D21">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -676,7 +676,7 @@
         <v>6</v>
       </c>
       <c r="D22">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -698,7 +698,7 @@
         <v>5</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -709,7 +709,7 @@
         <v>6</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -720,7 +720,7 @@
         <v>5</v>
       </c>
       <c r="E27">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -745,7 +745,7 @@
         <v>5</v>
       </c>
       <c r="E29">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -756,7 +756,7 @@
         <v>6</v>
       </c>
       <c r="E30">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -767,7 +767,7 @@
         <v>5</v>
       </c>
       <c r="E31">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -778,7 +778,7 @@
         <v>6</v>
       </c>
       <c r="E32">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -795,7 +795,7 @@
         <v>5</v>
       </c>
       <c r="E33">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -806,7 +806,7 @@
         <v>6</v>
       </c>
       <c r="E34">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -817,7 +817,7 @@
         <v>5</v>
       </c>
       <c r="E35">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -828,7 +828,7 @@
         <v>6</v>
       </c>
       <c r="E36">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -842,7 +842,7 @@
         <v>5</v>
       </c>
       <c r="E37">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -853,7 +853,7 @@
         <v>6</v>
       </c>
       <c r="E38">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -864,7 +864,7 @@
         <v>5</v>
       </c>
       <c r="E39">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -875,7 +875,7 @@
         <v>6</v>
       </c>
       <c r="E40">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -900,7 +900,7 @@
         <v>5</v>
       </c>
       <c r="F43">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -911,7 +911,7 @@
         <v>6</v>
       </c>
       <c r="F44">
-        <v>58</v>
+        <v>27</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -922,7 +922,7 @@
         <v>5</v>
       </c>
       <c r="F45">
-        <v>48</v>
+        <v>132</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -933,7 +933,7 @@
         <v>6</v>
       </c>
       <c r="F46">
-        <v>59</v>
+        <v>43</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -947,7 +947,7 @@
         <v>5</v>
       </c>
       <c r="F47">
-        <v>38</v>
+        <v>156</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -958,7 +958,7 @@
         <v>6</v>
       </c>
       <c r="F48">
-        <v>55</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -969,7 +969,7 @@
         <v>5</v>
       </c>
       <c r="F49">
-        <v>49</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -980,7 +980,7 @@
         <v>6</v>
       </c>
       <c r="F50">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -997,7 +997,7 @@
         <v>5</v>
       </c>
       <c r="F51">
-        <v>104</v>
+        <v>32</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1008,7 +1008,7 @@
         <v>6</v>
       </c>
       <c r="F52">
-        <v>106</v>
+        <v>68</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1019,7 +1019,7 @@
         <v>5</v>
       </c>
       <c r="F53">
-        <v>19</v>
+        <v>134</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1030,7 +1030,7 @@
         <v>6</v>
       </c>
       <c r="F54">
-        <v>73</v>
+        <v>82</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1044,7 +1044,7 @@
         <v>5</v>
       </c>
       <c r="F55">
-        <v>102</v>
+        <v>132</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1055,7 +1055,7 @@
         <v>6</v>
       </c>
       <c r="F56">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1066,7 +1066,7 @@
         <v>5</v>
       </c>
       <c r="F57">
-        <v>104</v>
+        <v>24</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1077,7 +1077,7 @@
         <v>6</v>
       </c>
       <c r="F58">
-        <v>137</v>
+        <v>59</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1097,7 +1097,7 @@
         <v>5</v>
       </c>
       <c r="F59">
-        <v>150</v>
+        <v>80</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1108,7 +1108,7 @@
         <v>6</v>
       </c>
       <c r="F60">
-        <v>49</v>
+        <v>31</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1119,7 +1119,7 @@
         <v>5</v>
       </c>
       <c r="F61">
-        <v>140</v>
+        <v>22</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1130,7 +1130,7 @@
         <v>6</v>
       </c>
       <c r="F62">
-        <v>60</v>
+        <v>35</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1144,7 +1144,7 @@
         <v>5</v>
       </c>
       <c r="F63">
-        <v>40</v>
+        <v>8</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1155,7 +1155,7 @@
         <v>6</v>
       </c>
       <c r="F64">
-        <v>144</v>
+        <v>128</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1166,7 +1166,7 @@
         <v>5</v>
       </c>
       <c r="F65">
-        <v>139</v>
+        <v>23</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1177,7 +1177,7 @@
         <v>6</v>
       </c>
       <c r="F66">
-        <v>108</v>
+        <v>43</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1194,7 +1194,7 @@
         <v>5</v>
       </c>
       <c r="F67">
-        <v>122</v>
+        <v>85</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1205,7 +1205,7 @@
         <v>6</v>
       </c>
       <c r="F68">
-        <v>44</v>
+        <v>106</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1216,7 +1216,7 @@
         <v>5</v>
       </c>
       <c r="F69">
-        <v>42</v>
+        <v>77</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1227,7 +1227,7 @@
         <v>6</v>
       </c>
       <c r="F70">
-        <v>129</v>
+        <v>13</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1241,7 +1241,7 @@
         <v>5</v>
       </c>
       <c r="F71">
-        <v>78</v>
+        <v>126</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1252,7 +1252,7 @@
         <v>6</v>
       </c>
       <c r="F72">
-        <v>69</v>
+        <v>94</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1263,7 +1263,7 @@
         <v>5</v>
       </c>
       <c r="F73">
-        <v>49</v>
+        <v>78</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1274,7 +1274,7 @@
         <v>6</v>
       </c>
       <c r="F74">
-        <v>59</v>
+        <v>94</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1293,7 +1293,7 @@
         <v>5</v>
       </c>
       <c r="D77">
-        <v>30</v>
+        <v>65</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1304,7 +1304,7 @@
         <v>6</v>
       </c>
       <c r="D78">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -1315,7 +1315,7 @@
         <v>5</v>
       </c>
       <c r="D79">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -1326,7 +1326,7 @@
         <v>6</v>
       </c>
       <c r="D80">
-        <v>88</v>
+        <v>65</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1340,7 +1340,7 @@
         <v>5</v>
       </c>
       <c r="D81">
-        <v>66</v>
+        <v>86</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1351,7 +1351,7 @@
         <v>6</v>
       </c>
       <c r="D82">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1362,7 +1362,7 @@
         <v>5</v>
       </c>
       <c r="D83">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1373,7 +1373,7 @@
         <v>6</v>
       </c>
       <c r="D84">
-        <v>29</v>
+        <v>4</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1389,7 +1389,7 @@
         <v>5</v>
       </c>
       <c r="C87">
-        <v>232</v>
+        <v>85</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1397,7 +1397,7 @@
         <v>6</v>
       </c>
       <c r="C88">
-        <v>1053</v>
+        <v>8</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1408,7 +1408,7 @@
         <v>5</v>
       </c>
       <c r="C89">
-        <v>1755</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1416,7 +1416,7 @@
         <v>6</v>
       </c>
       <c r="C90">
-        <v>456</v>
+        <v>67</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -1432,7 +1432,7 @@
         <v>5</v>
       </c>
       <c r="C93">
-        <v>761</v>
+        <v>27</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -1440,7 +1440,7 @@
         <v>6</v>
       </c>
       <c r="C94">
-        <v>634</v>
+        <v>2512</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -1451,7 +1451,7 @@
         <v>5</v>
       </c>
       <c r="C95">
-        <v>1429</v>
+        <v>110</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -1459,7 +1459,7 @@
         <v>6</v>
       </c>
       <c r="C96">
-        <v>212</v>
+        <v>489</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -1478,7 +1478,7 @@
         <v>5</v>
       </c>
       <c r="D99">
-        <v>510</v>
+        <v>488</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -1489,7 +1489,7 @@
         <v>6</v>
       </c>
       <c r="D100">
-        <v>163</v>
+        <v>87</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -1500,7 +1500,7 @@
         <v>5</v>
       </c>
       <c r="D101">
-        <v>863</v>
+        <v>330</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -1511,7 +1511,7 @@
         <v>6</v>
       </c>
       <c r="D102">
-        <v>28</v>
+        <v>844</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -1525,7 +1525,7 @@
         <v>5</v>
       </c>
       <c r="D103">
-        <v>982</v>
+        <v>726</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -1536,7 +1536,7 @@
         <v>6</v>
       </c>
       <c r="D104">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -1547,7 +1547,7 @@
         <v>5</v>
       </c>
       <c r="D105">
-        <v>507</v>
+        <v>589</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -1558,7 +1558,7 @@
         <v>6</v>
       </c>
       <c r="D106">
-        <v>286</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -1577,7 +1577,7 @@
         <v>5</v>
       </c>
       <c r="D109">
-        <v>181</v>
+        <v>234</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -1588,7 +1588,7 @@
         <v>6</v>
       </c>
       <c r="D110">
-        <v>371</v>
+        <v>289</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -1599,7 +1599,7 @@
         <v>5</v>
       </c>
       <c r="D111">
-        <v>346</v>
+        <v>5</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -1610,7 +1610,7 @@
         <v>6</v>
       </c>
       <c r="D112">
-        <v>489</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -1624,7 +1624,7 @@
         <v>5</v>
       </c>
       <c r="D113">
-        <v>339</v>
+        <v>217</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -1635,7 +1635,7 @@
         <v>6</v>
       </c>
       <c r="D114">
-        <v>267</v>
+        <v>62</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -1646,7 +1646,7 @@
         <v>5</v>
       </c>
       <c r="D115">
-        <v>411</v>
+        <v>383</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -1657,7 +1657,7 @@
         <v>6</v>
       </c>
       <c r="D116">
-        <v>87</v>
+        <v>13</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -1679,7 +1679,7 @@
         <v>5</v>
       </c>
       <c r="E119">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -1690,7 +1690,7 @@
         <v>6</v>
       </c>
       <c r="E120">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -1701,7 +1701,7 @@
         <v>5</v>
       </c>
       <c r="E121">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -1726,7 +1726,7 @@
         <v>5</v>
       </c>
       <c r="E123">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -1737,7 +1737,7 @@
         <v>6</v>
       </c>
       <c r="E124">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -1748,7 +1748,7 @@
         <v>5</v>
       </c>
       <c r="E125">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -1759,7 +1759,7 @@
         <v>6</v>
       </c>
       <c r="E126">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -1776,7 +1776,7 @@
         <v>5</v>
       </c>
       <c r="E127">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -1787,7 +1787,7 @@
         <v>6</v>
       </c>
       <c r="E128">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -1798,7 +1798,7 @@
         <v>5</v>
       </c>
       <c r="E129">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -1809,7 +1809,7 @@
         <v>6</v>
       </c>
       <c r="E130">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -1823,7 +1823,7 @@
         <v>5</v>
       </c>
       <c r="E131">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -1834,7 +1834,7 @@
         <v>6</v>
       </c>
       <c r="E132">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -1845,7 +1845,7 @@
         <v>5</v>
       </c>
       <c r="E133">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -1856,7 +1856,7 @@
         <v>6</v>
       </c>
       <c r="E134">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -1875,7 +1875,7 @@
         <v>5</v>
       </c>
       <c r="D137">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -1886,7 +1886,7 @@
         <v>6</v>
       </c>
       <c r="D138">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -1908,7 +1908,7 @@
         <v>6</v>
       </c>
       <c r="D140">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -1922,7 +1922,7 @@
         <v>5</v>
       </c>
       <c r="D141">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -1933,7 +1933,7 @@
         <v>6</v>
       </c>
       <c r="D142">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -1955,7 +1955,7 @@
         <v>6</v>
       </c>
       <c r="D144">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -1996,7 +1996,7 @@
         <v>5</v>
       </c>
       <c r="D149">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -2007,7 +2007,7 @@
         <v>6</v>
       </c>
       <c r="D150">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -2054,7 +2054,7 @@
         <v>6</v>
       </c>
       <c r="D154">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -2095,7 +2095,7 @@
         <v>5</v>
       </c>
       <c r="D159">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -2142,7 +2142,7 @@
         <v>5</v>
       </c>
       <c r="D163">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -2186,7 +2186,7 @@
         <v>6</v>
       </c>
       <c r="E168">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -2197,7 +2197,7 @@
         <v>5</v>
       </c>
       <c r="E169">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -2272,7 +2272,7 @@
         <v>5</v>
       </c>
       <c r="E175">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -2319,7 +2319,7 @@
         <v>5</v>
       </c>
       <c r="E179">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -2330,7 +2330,7 @@
         <v>6</v>
       </c>
       <c r="E180">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -2341,7 +2341,7 @@
         <v>5</v>
       </c>
       <c r="E181">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -2377,7 +2377,7 @@
         <v>5</v>
       </c>
       <c r="F185">
-        <v>16</v>
+        <v>65</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -2388,7 +2388,7 @@
         <v>6</v>
       </c>
       <c r="F186">
-        <v>7</v>
+        <v>35</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -2399,7 +2399,7 @@
         <v>5</v>
       </c>
       <c r="F187">
-        <v>37</v>
+        <v>95</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -2410,7 +2410,7 @@
         <v>6</v>
       </c>
       <c r="F188">
-        <v>29</v>
+        <v>6</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -2424,7 +2424,7 @@
         <v>5</v>
       </c>
       <c r="F189">
-        <v>34</v>
+        <v>73</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -2435,7 +2435,7 @@
         <v>6</v>
       </c>
       <c r="F190">
-        <v>19</v>
+        <v>97</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -2446,7 +2446,7 @@
         <v>5</v>
       </c>
       <c r="F191">
-        <v>69</v>
+        <v>6</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -2457,7 +2457,7 @@
         <v>6</v>
       </c>
       <c r="F192">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>5</v>
       </c>
       <c r="F193">
-        <v>51</v>
+        <v>75</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -2485,7 +2485,7 @@
         <v>6</v>
       </c>
       <c r="F194">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -2496,7 +2496,7 @@
         <v>5</v>
       </c>
       <c r="F195">
-        <v>78</v>
+        <v>23</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -2507,7 +2507,7 @@
         <v>6</v>
       </c>
       <c r="F196">
-        <v>74</v>
+        <v>13</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -2521,7 +2521,7 @@
         <v>5</v>
       </c>
       <c r="F197">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -2532,7 +2532,7 @@
         <v>6</v>
       </c>
       <c r="F198">
-        <v>65</v>
+        <v>50</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -2543,7 +2543,7 @@
         <v>5</v>
       </c>
       <c r="F199">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>6</v>
       </c>
       <c r="F200">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="F201">
-        <v>22</v>
+        <v>59</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -2585,7 +2585,7 @@
         <v>6</v>
       </c>
       <c r="F202">
-        <v>63</v>
+        <v>12</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -2596,7 +2596,7 @@
         <v>5</v>
       </c>
       <c r="F203">
-        <v>65</v>
+        <v>85</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -2607,7 +2607,7 @@
         <v>6</v>
       </c>
       <c r="F204">
-        <v>41</v>
+        <v>68</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -2621,7 +2621,7 @@
         <v>5</v>
       </c>
       <c r="F205">
-        <v>77</v>
+        <v>20</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -2632,7 +2632,7 @@
         <v>6</v>
       </c>
       <c r="F206">
-        <v>31</v>
+        <v>3</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -2643,7 +2643,7 @@
         <v>5</v>
       </c>
       <c r="F207">
-        <v>5</v>
+        <v>37</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>6</v>
       </c>
       <c r="F208">
-        <v>3</v>
+        <v>94</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -2671,7 +2671,7 @@
         <v>5</v>
       </c>
       <c r="F209">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -2682,7 +2682,7 @@
         <v>6</v>
       </c>
       <c r="F210">
-        <v>82</v>
+        <v>3</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -2693,7 +2693,7 @@
         <v>5</v>
       </c>
       <c r="F211">
-        <v>23</v>
+        <v>53</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -2704,7 +2704,7 @@
         <v>6</v>
       </c>
       <c r="F212">
-        <v>65</v>
+        <v>27</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -2718,7 +2718,7 @@
         <v>5</v>
       </c>
       <c r="F213">
-        <v>30</v>
+        <v>52</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -2729,7 +2729,7 @@
         <v>6</v>
       </c>
       <c r="F214">
-        <v>11</v>
+        <v>63</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -2740,7 +2740,7 @@
         <v>5</v>
       </c>
       <c r="F215">
-        <v>29</v>
+        <v>64</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -2751,7 +2751,7 @@
         <v>6</v>
       </c>
       <c r="F216">
-        <v>61</v>
+        <v>89</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -2773,7 +2773,7 @@
         <v>5</v>
       </c>
       <c r="E219">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -2784,7 +2784,7 @@
         <v>6</v>
       </c>
       <c r="E220">
-        <v>142</v>
+        <v>108</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -2795,7 +2795,7 @@
         <v>5</v>
       </c>
       <c r="E221">
-        <v>108</v>
+        <v>80</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -2806,7 +2806,7 @@
         <v>6</v>
       </c>
       <c r="E222">
-        <v>145</v>
+        <v>104</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -2820,7 +2820,7 @@
         <v>5</v>
       </c>
       <c r="E223">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -2831,7 +2831,7 @@
         <v>6</v>
       </c>
       <c r="E224">
-        <v>67</v>
+        <v>116</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -2842,7 +2842,7 @@
         <v>5</v>
       </c>
       <c r="E225">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -2853,7 +2853,7 @@
         <v>6</v>
       </c>
       <c r="E226">
-        <v>14</v>
+        <v>42</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -2870,7 +2870,7 @@
         <v>5</v>
       </c>
       <c r="E227">
-        <v>18</v>
+        <v>51</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -2881,7 +2881,7 @@
         <v>6</v>
       </c>
       <c r="E228">
-        <v>81</v>
+        <v>25</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -2892,7 +2892,7 @@
         <v>5</v>
       </c>
       <c r="E229">
-        <v>1</v>
+        <v>37</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -2903,7 +2903,7 @@
         <v>6</v>
       </c>
       <c r="E230">
-        <v>50</v>
+        <v>58</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -2917,7 +2917,7 @@
         <v>5</v>
       </c>
       <c r="E231">
-        <v>69</v>
+        <v>3</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -2928,7 +2928,7 @@
         <v>6</v>
       </c>
       <c r="E232">
-        <v>146</v>
+        <v>9</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -2939,7 +2939,7 @@
         <v>5</v>
       </c>
       <c r="E233">
-        <v>85</v>
+        <v>101</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -2950,7 +2950,7 @@
         <v>6</v>
       </c>
       <c r="E234">
-        <v>112</v>
+        <v>83</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -2972,7 +2972,7 @@
         <v>5</v>
       </c>
       <c r="E237">
-        <v>373</v>
+        <v>443</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -2983,7 +2983,7 @@
         <v>6</v>
       </c>
       <c r="E238">
-        <v>559</v>
+        <v>42</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -2994,7 +2994,7 @@
         <v>5</v>
       </c>
       <c r="E239">
-        <v>48</v>
+        <v>256</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -3005,7 +3005,7 @@
         <v>6</v>
       </c>
       <c r="E240">
-        <v>383</v>
+        <v>147</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -3019,7 +3019,7 @@
         <v>5</v>
       </c>
       <c r="E241">
-        <v>373</v>
+        <v>443</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -3030,7 +3030,7 @@
         <v>6</v>
       </c>
       <c r="E242">
-        <v>559</v>
+        <v>42</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -3041,7 +3041,7 @@
         <v>5</v>
       </c>
       <c r="E243">
-        <v>48</v>
+        <v>256</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -3052,7 +3052,7 @@
         <v>6</v>
       </c>
       <c r="E244">
-        <v>383</v>
+        <v>147</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -3069,7 +3069,7 @@
         <v>5</v>
       </c>
       <c r="E245">
-        <v>373</v>
+        <v>443</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -3080,7 +3080,7 @@
         <v>6</v>
       </c>
       <c r="E246">
-        <v>559</v>
+        <v>42</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -3091,7 +3091,7 @@
         <v>5</v>
       </c>
       <c r="E247">
-        <v>48</v>
+        <v>256</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -3102,7 +3102,7 @@
         <v>6</v>
       </c>
       <c r="E248">
-        <v>383</v>
+        <v>147</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -3116,7 +3116,7 @@
         <v>5</v>
       </c>
       <c r="E249">
-        <v>373</v>
+        <v>443</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -3127,7 +3127,7 @@
         <v>6</v>
       </c>
       <c r="E250">
-        <v>559</v>
+        <v>42</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -3138,7 +3138,7 @@
         <v>5</v>
       </c>
       <c r="E251">
-        <v>48</v>
+        <v>256</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -3149,7 +3149,7 @@
         <v>6</v>
       </c>
       <c r="E252">
-        <v>383</v>
+        <v>147</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -3165,7 +3165,7 @@
         <v>5</v>
       </c>
       <c r="C255">
-        <v>17</v>
+        <v>179</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -3173,7 +3173,7 @@
         <v>6</v>
       </c>
       <c r="C256">
-        <v>291</v>
+        <v>39</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -3184,7 +3184,7 @@
         <v>5</v>
       </c>
       <c r="C257">
-        <v>45</v>
+        <v>265</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -3192,7 +3192,7 @@
         <v>6</v>
       </c>
       <c r="C258">
-        <v>208</v>
+        <v>167</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -3214,7 +3214,7 @@
         <v>5</v>
       </c>
       <c r="E261">
-        <v>65</v>
+        <v>174</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -3225,7 +3225,7 @@
         <v>6</v>
       </c>
       <c r="E262">
-        <v>31</v>
+        <v>99</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -3236,7 +3236,7 @@
         <v>5</v>
       </c>
       <c r="E263">
-        <v>75</v>
+        <v>18</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -3247,7 +3247,7 @@
         <v>6</v>
       </c>
       <c r="E264">
-        <v>136</v>
+        <v>183</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -3261,7 +3261,7 @@
         <v>5</v>
       </c>
       <c r="E265">
-        <v>87</v>
+        <v>114</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -3272,7 +3272,7 @@
         <v>6</v>
       </c>
       <c r="E266">
-        <v>50</v>
+        <v>69</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -3283,7 +3283,7 @@
         <v>5</v>
       </c>
       <c r="E267">
-        <v>182</v>
+        <v>92</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -3294,7 +3294,7 @@
         <v>6</v>
       </c>
       <c r="E268">
-        <v>11</v>
+        <v>143</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -3311,7 +3311,7 @@
         <v>5</v>
       </c>
       <c r="E269">
-        <v>65</v>
+        <v>174</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -3322,7 +3322,7 @@
         <v>6</v>
       </c>
       <c r="E270">
-        <v>31</v>
+        <v>99</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -3333,7 +3333,7 @@
         <v>5</v>
       </c>
       <c r="E271">
-        <v>75</v>
+        <v>18</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -3344,7 +3344,7 @@
         <v>6</v>
       </c>
       <c r="E272">
-        <v>136</v>
+        <v>183</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -3358,7 +3358,7 @@
         <v>5</v>
       </c>
       <c r="E273">
-        <v>87</v>
+        <v>114</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -3369,7 +3369,7 @@
         <v>6</v>
       </c>
       <c r="E274">
-        <v>50</v>
+        <v>69</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -3380,7 +3380,7 @@
         <v>5</v>
       </c>
       <c r="E275">
-        <v>182</v>
+        <v>92</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -3391,7 +3391,7 @@
         <v>6</v>
       </c>
       <c r="E276">
-        <v>11</v>
+        <v>143</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -3413,7 +3413,7 @@
         <v>5</v>
       </c>
       <c r="E279">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -3435,7 +3435,7 @@
         <v>5</v>
       </c>
       <c r="E281">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -3446,7 +3446,7 @@
         <v>6</v>
       </c>
       <c r="E282">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -3493,7 +3493,7 @@
         <v>6</v>
       </c>
       <c r="E286">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -3521,7 +3521,7 @@
         <v>6</v>
       </c>
       <c r="E288">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -3532,7 +3532,7 @@
         <v>5</v>
       </c>
       <c r="E289">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -3557,7 +3557,7 @@
         <v>5</v>
       </c>
       <c r="E291">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -3568,7 +3568,7 @@
         <v>6</v>
       </c>
       <c r="E292">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -3609,7 +3609,7 @@
         <v>5</v>
       </c>
       <c r="D297">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:5">
@@ -3631,7 +3631,7 @@
         <v>5</v>
       </c>
       <c r="D299">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -3656,7 +3656,7 @@
         <v>5</v>
       </c>
       <c r="D301">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -3667,7 +3667,7 @@
         <v>6</v>
       </c>
       <c r="D302">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303" spans="1:5">
@@ -3678,7 +3678,7 @@
         <v>5</v>
       </c>
       <c r="D303">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304" spans="1:5">
